--- a/all_modes/annotations/data_source.xlsx
+++ b/all_modes/annotations/data_source.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Y_Ma2\Desktop\GITHUB\td-trends\all_modes\annotations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86FF5D95-B3B1-4A4D-B155-74CD51882E43}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BF6D873-A8B1-43BE-ADE9-9FAD8E646C71}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="58">
   <si>
     <t>Commuter Rail</t>
   </si>
@@ -87,9 +87,6 @@
     <t>Private Ferry Monthly Ridership, SIF Passenger Counts by Month</t>
   </si>
   <si>
-    <t xml:space="preserve">total trips (not ridership); ops reports are missing for apr, may, jul, aug, sep 2016; proxy figures based on trip histories </t>
-  </si>
-  <si>
     <t xml:space="preserve">2019 &amp; 2020 Subway Ridership Tables </t>
   </si>
   <si>
@@ -121,9 +118,6 @@
   </si>
   <si>
     <t>1/2018 - 2/2020 (monthly)</t>
-  </si>
-  <si>
-    <t>subtracted 1.463 million SIR trips from 2021 subway total; based on Preliminary Dec 2021 Report: SIR</t>
   </si>
   <si>
     <t>Joint LIRR/MNR Committee Books</t>
@@ -177,11 +171,46 @@
     <t>monthly sums do not match because of system-wide adjustments; 2020 data is not broken down by NYCT &amp; MTA bus</t>
   </si>
   <si>
-    <t>monthly breakdowns: trips per day*days per month
-monthly taxi &amp; fhv totals: ex. (green + yellow taxi)*1.6 estimated vehicle occupancy</t>
-  </si>
-  <si>
     <t>Bus Total: 3/2020 - present (daily)</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Ridership</t>
+  </si>
+  <si>
+    <t>subtracted 1.463 million SIR riders from 2021 subway total; based on Preliminary Dec 2021 Report: SIR</t>
+  </si>
+  <si>
+    <t>Trip</t>
+  </si>
+  <si>
+    <t>monthly breakdowns: trips per day*days per month</t>
+  </si>
+  <si>
+    <t>total trips (not ridership)</t>
+  </si>
+  <si>
+    <t>Bridges &amp; Tunnels Traffic</t>
+  </si>
+  <si>
+    <t>Vehicle</t>
+  </si>
+  <si>
+    <t>PANYNJ</t>
+  </si>
+  <si>
+    <t>Monthly Traffic and Percent of E‐ZPass Usage</t>
+  </si>
+  <si>
+    <t>2011 - present (monthly)</t>
+  </si>
+  <si>
+    <t>inbound traffic only</t>
+  </si>
+  <si>
+    <t>Bridges and Tunnels Committee Books</t>
   </si>
 </sst>
 </file>
@@ -281,7 +310,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -289,27 +318,32 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -593,252 +627,327 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADCA9939-48E3-4CB2-997E-11CCE7504404}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="59.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="107.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="59.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="107.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="12"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="12"/>
+    </row>
+    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="12"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="12"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="12"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E20" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="14"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F20" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="14"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="14"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="14"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="14"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="14"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="14"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="14"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="14"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D19" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="E25" s="3"/>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F25" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="11">
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
     <mergeCell ref="B2:B6"/>
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="A2:A6"/>
@@ -848,23 +957,25 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C14" r:id="rId1" xr:uid="{84B0E9EE-EFEB-4083-A93A-3BC5FD708F1D}"/>
-    <hyperlink ref="C16" r:id="rId2" xr:uid="{69CC570E-BFEB-40D9-85FC-633335F250BF}"/>
-    <hyperlink ref="C10" r:id="rId3" xr:uid="{088F4EED-C626-4EFA-AEAB-96E3C9C30608}"/>
-    <hyperlink ref="C7" r:id="rId4" xr:uid="{DA5FA279-A915-4B58-9617-BC41D827AF47}"/>
-    <hyperlink ref="C5" r:id="rId5" xr:uid="{E8439B98-3E84-41A0-B9CD-3739F499A683}"/>
-    <hyperlink ref="C9" r:id="rId6" xr:uid="{3E80DAAC-D5F7-4652-B5CC-25183877717F}"/>
-    <hyperlink ref="C13" r:id="rId7" xr:uid="{F28064AE-5FE2-415E-A85F-5C673AE9EA29}"/>
-    <hyperlink ref="C15" r:id="rId8" location="ferry" xr:uid="{56131F57-DF06-49E1-82F8-0DF4CEC42320}"/>
-    <hyperlink ref="C12" r:id="rId9" display="2020 Bus Ridership Tables" xr:uid="{F227A77D-916C-4E32-893B-1496C7C58EA6}"/>
-    <hyperlink ref="C4" r:id="rId10" display="2020 Subway Ridership Tables " xr:uid="{16CFE0C9-9F28-487E-AF01-91E5A4009EF9}"/>
-    <hyperlink ref="C2" r:id="rId11" xr:uid="{C9695268-117C-4641-90F4-575CDB269589}"/>
-    <hyperlink ref="C6" r:id="rId12" xr:uid="{FB9FB5C9-5167-4BF9-82A9-C6F1EFC607F4}"/>
-    <hyperlink ref="C3" r:id="rId13" display="NYCT Committee Book" xr:uid="{C86ACA2A-3C5F-445B-B119-CED3EEE4E6C3}"/>
-    <hyperlink ref="C8" r:id="rId14" display="NYCT Committee Book" xr:uid="{2C9BB93A-01F5-47F0-A3C1-79C5496293FF}"/>
-    <hyperlink ref="C11" r:id="rId15" display="NYCT Committee Book" xr:uid="{634BD9A6-591E-4E9C-AD2B-F331AB87985E}"/>
+    <hyperlink ref="D14" r:id="rId1" xr:uid="{043B38E0-1A08-425A-AB5E-864E92F03986}"/>
+    <hyperlink ref="D16" r:id="rId2" xr:uid="{133DF949-F162-4DFD-8107-51471F206D72}"/>
+    <hyperlink ref="D10" r:id="rId3" xr:uid="{E8120FCE-D6E1-42F0-B012-7BBD7C5671CB}"/>
+    <hyperlink ref="D7" r:id="rId4" xr:uid="{04571E71-C75C-437E-A881-BD12B67FF4EA}"/>
+    <hyperlink ref="D5" r:id="rId5" xr:uid="{A9617BE8-1080-4E1A-8A62-41B2485B8D3E}"/>
+    <hyperlink ref="D9" r:id="rId6" xr:uid="{D9D58FB7-F66F-4167-A40C-4F5DA8CF09D7}"/>
+    <hyperlink ref="D13" r:id="rId7" xr:uid="{FE105394-5597-40F5-B5DA-E9DD0EE8F64A}"/>
+    <hyperlink ref="D15" r:id="rId8" location="ferry" xr:uid="{5CEE56C9-EC35-4BF1-867A-C58FC78325AC}"/>
+    <hyperlink ref="D12" r:id="rId9" display="2020 Bus Ridership Tables" xr:uid="{92DF68E1-6F88-42AB-BA2F-BFD2C35041F8}"/>
+    <hyperlink ref="D4" r:id="rId10" display="2020 Subway Ridership Tables " xr:uid="{BA39CAEE-0086-4794-93FC-95A7CE241231}"/>
+    <hyperlink ref="D2" r:id="rId11" xr:uid="{D9FDFDE6-7260-47A1-88BC-8A4DB0AC5627}"/>
+    <hyperlink ref="D6" r:id="rId12" xr:uid="{49488D97-C6F8-41FE-A784-08122D5E3B55}"/>
+    <hyperlink ref="D3" r:id="rId13" display="NYCT Committee Book" xr:uid="{66D2507E-1ED6-4A8D-80F4-E5B473B0F51F}"/>
+    <hyperlink ref="D8" r:id="rId14" display="NYCT Committee Book" xr:uid="{0CB9BAFE-CCCC-4DD1-A09B-09B3B8B12342}"/>
+    <hyperlink ref="D11" r:id="rId15" display="NYCT Committee Book" xr:uid="{20EB39A4-546B-4BC5-B3C0-9C5F639F7C88}"/>
+    <hyperlink ref="D17" r:id="rId16" xr:uid="{3D84132D-8B0A-4DB9-B52A-6AA484B7BAF9}"/>
+    <hyperlink ref="D18" r:id="rId17" xr:uid="{FB026F75-27C0-4AC0-A01C-7A3A852BAD1B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId16"/>
+  <pageSetup orientation="portrait" r:id="rId18"/>
 </worksheet>
 </file>
--- a/all_modes/annotations/data_source.xlsx
+++ b/all_modes/annotations/data_source.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Y_Ma2\Desktop\GITHUB\td-trends\all_modes\annotations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BF6D873-A8B1-43BE-ADE9-9FAD8E646C71}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA785BC5-ABD5-4752-B483-4005F50288B0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="64">
   <si>
     <t>Commuter Rail</t>
   </si>
@@ -211,6 +211,24 @@
   </si>
   <si>
     <t>Bridges and Tunnels Committee Books</t>
+  </si>
+  <si>
+    <t>Air</t>
+  </si>
+  <si>
+    <t>Passenger</t>
+  </si>
+  <si>
+    <t>Air Passenger Traffic per Month</t>
+  </si>
+  <si>
+    <t>2008 - 2015 (monthly)</t>
+  </si>
+  <si>
+    <t>Data &amp; Statistics</t>
+  </si>
+  <si>
+    <t>2016 - present (monthly)</t>
   </si>
 </sst>
 </file>
@@ -318,15 +336,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -340,6 +349,15 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -627,7 +645,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADCA9939-48E3-4CB2-997E-11CCE7504404}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
@@ -664,244 +682,244 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="12"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10" t="s">
+      <c r="A3" s="14"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="9" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="10" t="s">
+      <c r="A4" s="14"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="9" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="10" t="s">
+      <c r="A5" s="14"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="9" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="10" t="s">
+      <c r="A6" s="14"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="9" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="12"/>
+      <c r="F7" s="9"/>
     </row>
     <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="10" t="s">
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="9" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="10" t="s">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="12"/>
+      <c r="F9" s="9"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="12"/>
+      <c r="F10" s="9"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="10" t="s">
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="9" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="10" t="s">
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="9" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="10" t="s">
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="12"/>
+      <c r="F13" s="9"/>
     </row>
     <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="F14" s="12" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F15" s="12"/>
+      <c r="F15" s="9"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="F16" s="9" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="14" t="s">
         <v>52</v>
       </c>
       <c r="C17" s="6" t="s">
@@ -910,36 +928,69 @@
       <c r="D17" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="F17" s="9" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
       <c r="C18" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="8" t="s">
         <v>55</v>
       </c>
     </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E20" s="4" t="s">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="D20" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="8"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E22" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F22" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F25" s="3"/>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F27" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -957,25 +1008,27 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D14" r:id="rId1" xr:uid="{043B38E0-1A08-425A-AB5E-864E92F03986}"/>
-    <hyperlink ref="D16" r:id="rId2" xr:uid="{133DF949-F162-4DFD-8107-51471F206D72}"/>
-    <hyperlink ref="D10" r:id="rId3" xr:uid="{E8120FCE-D6E1-42F0-B012-7BBD7C5671CB}"/>
-    <hyperlink ref="D7" r:id="rId4" xr:uid="{04571E71-C75C-437E-A881-BD12B67FF4EA}"/>
-    <hyperlink ref="D5" r:id="rId5" xr:uid="{A9617BE8-1080-4E1A-8A62-41B2485B8D3E}"/>
-    <hyperlink ref="D9" r:id="rId6" xr:uid="{D9D58FB7-F66F-4167-A40C-4F5DA8CF09D7}"/>
-    <hyperlink ref="D13" r:id="rId7" xr:uid="{FE105394-5597-40F5-B5DA-E9DD0EE8F64A}"/>
-    <hyperlink ref="D15" r:id="rId8" location="ferry" xr:uid="{5CEE56C9-EC35-4BF1-867A-C58FC78325AC}"/>
-    <hyperlink ref="D12" r:id="rId9" display="2020 Bus Ridership Tables" xr:uid="{92DF68E1-6F88-42AB-BA2F-BFD2C35041F8}"/>
-    <hyperlink ref="D4" r:id="rId10" display="2020 Subway Ridership Tables " xr:uid="{BA39CAEE-0086-4794-93FC-95A7CE241231}"/>
-    <hyperlink ref="D2" r:id="rId11" xr:uid="{D9FDFDE6-7260-47A1-88BC-8A4DB0AC5627}"/>
-    <hyperlink ref="D6" r:id="rId12" xr:uid="{49488D97-C6F8-41FE-A784-08122D5E3B55}"/>
-    <hyperlink ref="D3" r:id="rId13" display="NYCT Committee Book" xr:uid="{66D2507E-1ED6-4A8D-80F4-E5B473B0F51F}"/>
-    <hyperlink ref="D8" r:id="rId14" display="NYCT Committee Book" xr:uid="{0CB9BAFE-CCCC-4DD1-A09B-09B3B8B12342}"/>
-    <hyperlink ref="D11" r:id="rId15" display="NYCT Committee Book" xr:uid="{20EB39A4-546B-4BC5-B3C0-9C5F639F7C88}"/>
-    <hyperlink ref="D17" r:id="rId16" xr:uid="{3D84132D-8B0A-4DB9-B52A-6AA484B7BAF9}"/>
-    <hyperlink ref="D18" r:id="rId17" xr:uid="{FB026F75-27C0-4AC0-A01C-7A3A852BAD1B}"/>
+    <hyperlink ref="D14" r:id="rId1" xr:uid="{1EC789A1-355C-4F8F-B27F-78999A863DCD}"/>
+    <hyperlink ref="D16" r:id="rId2" xr:uid="{F92C2011-0D22-445E-B8C2-509DFA6421F2}"/>
+    <hyperlink ref="D10" r:id="rId3" xr:uid="{871425C5-9713-4201-BCAC-F8785C63C769}"/>
+    <hyperlink ref="D7" r:id="rId4" xr:uid="{DAFBB414-715F-401A-A62F-E1B2032A244A}"/>
+    <hyperlink ref="D5" r:id="rId5" xr:uid="{63A5CC19-3ECA-4DD0-BA64-6F6456BEF70B}"/>
+    <hyperlink ref="D9" r:id="rId6" xr:uid="{52A3C109-73F9-47C2-8165-1C3E57041E5F}"/>
+    <hyperlink ref="D13" r:id="rId7" xr:uid="{E68FB4F8-C7E8-4CF2-8C1F-04F56E1D9FC0}"/>
+    <hyperlink ref="D15" r:id="rId8" location="ferry" xr:uid="{B2790324-5F25-4991-9C59-F5CCDC63CEEB}"/>
+    <hyperlink ref="D12" r:id="rId9" display="2020 Bus Ridership Tables" xr:uid="{A00D5A8F-4115-4ED4-8155-6E4A448680D1}"/>
+    <hyperlink ref="D4" r:id="rId10" display="2020 Subway Ridership Tables " xr:uid="{2484C5AD-C959-45A7-BDDE-3769DA52DF1E}"/>
+    <hyperlink ref="D2" r:id="rId11" xr:uid="{EDA5B565-74BF-477B-B7A4-7E1C39E10F5C}"/>
+    <hyperlink ref="D6" r:id="rId12" xr:uid="{4A3BE19F-7CDB-4989-85C1-471176ED9C7B}"/>
+    <hyperlink ref="D3" r:id="rId13" display="NYCT Committee Book" xr:uid="{5492B637-2E39-4E10-BBB6-C8AD6883A5B5}"/>
+    <hyperlink ref="D8" r:id="rId14" display="NYCT Committee Book" xr:uid="{622B1D27-46B5-43C1-BFA0-742A6DC6F183}"/>
+    <hyperlink ref="D11" r:id="rId15" display="NYCT Committee Book" xr:uid="{542A5957-9C35-4889-BB24-5B7835501C27}"/>
+    <hyperlink ref="D17" r:id="rId16" xr:uid="{D2458859-56DB-4B3B-BC7F-4EBF27374CFB}"/>
+    <hyperlink ref="D18" r:id="rId17" xr:uid="{2835C0D9-8B1F-4A3C-AAD1-1FF2BF154E52}"/>
+    <hyperlink ref="D20" r:id="rId18" xr:uid="{220C7DC9-9A85-495E-9365-85FDA9B9C726}"/>
+    <hyperlink ref="D19" r:id="rId19" xr:uid="{E0393308-67B7-4C67-879B-6EE7D67DC897}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId18"/>
+  <pageSetup orientation="portrait" r:id="rId20"/>
 </worksheet>
 </file>
--- a/all_modes/annotations/data_source.xlsx
+++ b/all_modes/annotations/data_source.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Y_Ma2\Desktop\GITHUB\td-trends\all_modes\annotations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mayij\Desktop\DOC\GITHUB\td-trends\all_modes\annotations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA785BC5-ABD5-4752-B483-4005F50288B0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA2794F-28C3-436E-8F2D-67CE6081D54B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="68">
   <si>
     <t>Commuter Rail</t>
   </si>
@@ -229,6 +229,18 @@
   </si>
   <si>
     <t>2016 - present (monthly)</t>
+  </si>
+  <si>
+    <t>Positive Cases</t>
+  </si>
+  <si>
+    <t>Case</t>
+  </si>
+  <si>
+    <t>DOHMH</t>
+  </si>
+  <si>
+    <t>Case by Day</t>
   </si>
 </sst>
 </file>
@@ -342,13 +354,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -645,7 +657,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADCA9939-48E3-4CB2-997E-11CCE7504404}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
@@ -697,7 +709,7 @@
       <c r="E2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="9"/>
+      <c r="F2" s="11"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="14"/>
@@ -709,7 +721,7 @@
       <c r="E3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="11" t="s">
         <v>40</v>
       </c>
     </row>
@@ -723,7 +735,7 @@
       <c r="E4" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="11" t="s">
         <v>21</v>
       </c>
     </row>
@@ -737,7 +749,7 @@
       <c r="E5" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="11" t="s">
         <v>22</v>
       </c>
     </row>
@@ -751,7 +763,7 @@
       <c r="E6" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="11" t="s">
         <v>47</v>
       </c>
     </row>
@@ -768,10 +780,10 @@
       <c r="D7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="9"/>
+      <c r="F7" s="11"/>
     </row>
     <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="14"/>
@@ -780,10 +792,10 @@
       <c r="D8" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="11" t="s">
         <v>40</v>
       </c>
     </row>
@@ -797,7 +809,7 @@
       <c r="E9" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="9"/>
+      <c r="F9" s="11"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
@@ -815,7 +827,7 @@
       <c r="E10" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="9"/>
+      <c r="F10" s="11"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="14"/>
@@ -827,7 +839,7 @@
       <c r="E11" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="11" t="s">
         <v>40</v>
       </c>
     </row>
@@ -841,7 +853,7 @@
       <c r="E12" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="11" t="s">
         <v>43</v>
       </c>
     </row>
@@ -855,22 +867,22 @@
       <c r="E13" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="9"/>
+      <c r="F13" s="11"/>
     </row>
     <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="10" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="9" t="s">
         <v>35</v>
       </c>
       <c r="F14" s="12" t="s">
@@ -878,13 +890,13 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D15" s="7" t="s">
@@ -893,16 +905,16 @@
       <c r="E15" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F15" s="9"/>
+      <c r="F15" s="11"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="10" t="s">
         <v>3</v>
       </c>
       <c r="D16" s="7" t="s">
@@ -911,7 +923,7 @@
       <c r="E16" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="11" t="s">
         <v>50</v>
       </c>
     </row>
@@ -931,7 +943,7 @@
       <c r="E17" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="11" t="s">
         <v>56</v>
       </c>
     </row>
@@ -949,10 +961,10 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="11" t="s">
         <v>59</v>
       </c>
       <c r="C19" s="6" t="s">
@@ -966,8 +978,8 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
       <c r="D20" s="1" t="s">
         <v>62</v>
       </c>
@@ -976,21 +988,38 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="8"/>
+      <c r="A21" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E22" s="4" t="s">
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="8"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E23" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F23" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F27" s="3"/>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F28" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -1008,27 +1037,28 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D14" r:id="rId1" xr:uid="{1EC789A1-355C-4F8F-B27F-78999A863DCD}"/>
-    <hyperlink ref="D16" r:id="rId2" xr:uid="{F92C2011-0D22-445E-B8C2-509DFA6421F2}"/>
-    <hyperlink ref="D10" r:id="rId3" xr:uid="{871425C5-9713-4201-BCAC-F8785C63C769}"/>
-    <hyperlink ref="D7" r:id="rId4" xr:uid="{DAFBB414-715F-401A-A62F-E1B2032A244A}"/>
-    <hyperlink ref="D5" r:id="rId5" xr:uid="{63A5CC19-3ECA-4DD0-BA64-6F6456BEF70B}"/>
-    <hyperlink ref="D9" r:id="rId6" xr:uid="{52A3C109-73F9-47C2-8165-1C3E57041E5F}"/>
-    <hyperlink ref="D13" r:id="rId7" xr:uid="{E68FB4F8-C7E8-4CF2-8C1F-04F56E1D9FC0}"/>
-    <hyperlink ref="D15" r:id="rId8" location="ferry" xr:uid="{B2790324-5F25-4991-9C59-F5CCDC63CEEB}"/>
-    <hyperlink ref="D12" r:id="rId9" display="2020 Bus Ridership Tables" xr:uid="{A00D5A8F-4115-4ED4-8155-6E4A448680D1}"/>
-    <hyperlink ref="D4" r:id="rId10" display="2020 Subway Ridership Tables " xr:uid="{2484C5AD-C959-45A7-BDDE-3769DA52DF1E}"/>
-    <hyperlink ref="D2" r:id="rId11" xr:uid="{EDA5B565-74BF-477B-B7A4-7E1C39E10F5C}"/>
-    <hyperlink ref="D6" r:id="rId12" xr:uid="{4A3BE19F-7CDB-4989-85C1-471176ED9C7B}"/>
-    <hyperlink ref="D3" r:id="rId13" display="NYCT Committee Book" xr:uid="{5492B637-2E39-4E10-BBB6-C8AD6883A5B5}"/>
-    <hyperlink ref="D8" r:id="rId14" display="NYCT Committee Book" xr:uid="{622B1D27-46B5-43C1-BFA0-742A6DC6F183}"/>
-    <hyperlink ref="D11" r:id="rId15" display="NYCT Committee Book" xr:uid="{542A5957-9C35-4889-BB24-5B7835501C27}"/>
-    <hyperlink ref="D17" r:id="rId16" xr:uid="{D2458859-56DB-4B3B-BC7F-4EBF27374CFB}"/>
-    <hyperlink ref="D18" r:id="rId17" xr:uid="{2835C0D9-8B1F-4A3C-AAD1-1FF2BF154E52}"/>
-    <hyperlink ref="D20" r:id="rId18" xr:uid="{220C7DC9-9A85-495E-9365-85FDA9B9C726}"/>
-    <hyperlink ref="D19" r:id="rId19" xr:uid="{E0393308-67B7-4C67-879B-6EE7D67DC897}"/>
+    <hyperlink ref="D14" r:id="rId1" xr:uid="{9F877D89-18A2-4CC7-8643-1075115F607B}"/>
+    <hyperlink ref="D16" r:id="rId2" xr:uid="{AF3969D5-C087-4B65-942B-447B7F0C4500}"/>
+    <hyperlink ref="D10" r:id="rId3" xr:uid="{A1669641-4AE4-4AAD-AED2-EAB5BD260B5E}"/>
+    <hyperlink ref="D7" r:id="rId4" xr:uid="{B152A19B-F43A-4267-82A9-5BF8CC472C0E}"/>
+    <hyperlink ref="D5" r:id="rId5" xr:uid="{D5ED7679-2B22-413E-901B-A04637235A09}"/>
+    <hyperlink ref="D9" r:id="rId6" xr:uid="{BFE51CFE-C510-4C59-9A3E-97851E444553}"/>
+    <hyperlink ref="D13" r:id="rId7" xr:uid="{7912A3D3-9582-49EC-9907-EFEEA301662D}"/>
+    <hyperlink ref="D15" r:id="rId8" location="ferry" xr:uid="{2A95FC48-4588-45DC-9D0D-D9B0093D2E49}"/>
+    <hyperlink ref="D12" r:id="rId9" display="2020 Bus Ridership Tables" xr:uid="{BE6A1CA7-51D3-4C30-9FB4-EE20947C6728}"/>
+    <hyperlink ref="D4" r:id="rId10" display="2020 Subway Ridership Tables " xr:uid="{BE6AF8D9-9DAB-4AEA-B2D8-3063EF76284D}"/>
+    <hyperlink ref="D2" r:id="rId11" xr:uid="{ADAFF76A-8E52-485C-8F06-052C616FF326}"/>
+    <hyperlink ref="D6" r:id="rId12" xr:uid="{C8D85097-C04D-4FEB-9CFC-CE0AC198CB18}"/>
+    <hyperlink ref="D3" r:id="rId13" display="NYCT Committee Book" xr:uid="{D469366C-A496-44DC-8080-5C33769337DA}"/>
+    <hyperlink ref="D8" r:id="rId14" display="NYCT Committee Book" xr:uid="{1D55D477-4C28-4050-82C3-8CDEFB56CADE}"/>
+    <hyperlink ref="D11" r:id="rId15" display="NYCT Committee Book" xr:uid="{F89BF3E1-80FF-410B-8785-4494B529EAB4}"/>
+    <hyperlink ref="D17" r:id="rId16" xr:uid="{49F42CE7-FAF0-4889-A2BB-F2CF33EC22D2}"/>
+    <hyperlink ref="D18" r:id="rId17" xr:uid="{49B49365-5E48-45D3-9766-D1A9928BF643}"/>
+    <hyperlink ref="D20" r:id="rId18" xr:uid="{7D3E623E-FBDC-47B2-8119-942A5C495284}"/>
+    <hyperlink ref="D19" r:id="rId19" xr:uid="{F4D99970-89C5-49FB-A57D-461ACFD847BA}"/>
+    <hyperlink ref="D21" r:id="rId20" tooltip="cases-by-day.csv" xr:uid="{0C9F5C4B-94C3-4DDE-BF70-F392F50D4D8B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId20"/>
+  <pageSetup orientation="portrait" r:id="rId21"/>
 </worksheet>
 </file>
--- a/all_modes/annotations/data_source.xlsx
+++ b/all_modes/annotations/data_source.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mayij\Desktop\DOC\GITHUB\td-trends\all_modes\annotations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA2794F-28C3-436E-8F2D-67CE6081D54B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61278646-61A7-4C0B-9DE5-143F4598BC4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -231,16 +231,16 @@
     <t>2016 - present (monthly)</t>
   </si>
   <si>
-    <t>Positive Cases</t>
-  </si>
-  <si>
-    <t>Case</t>
-  </si>
-  <si>
     <t>DOHMH</t>
   </si>
   <si>
-    <t>Case by Day</t>
+    <t>Hospitalizations</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Hospitalizations by Day</t>
   </si>
 </sst>
 </file>
@@ -989,13 +989,13 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>64</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>66</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>67</v>
@@ -1037,26 +1037,26 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D14" r:id="rId1" xr:uid="{9F877D89-18A2-4CC7-8643-1075115F607B}"/>
-    <hyperlink ref="D16" r:id="rId2" xr:uid="{AF3969D5-C087-4B65-942B-447B7F0C4500}"/>
-    <hyperlink ref="D10" r:id="rId3" xr:uid="{A1669641-4AE4-4AAD-AED2-EAB5BD260B5E}"/>
-    <hyperlink ref="D7" r:id="rId4" xr:uid="{B152A19B-F43A-4267-82A9-5BF8CC472C0E}"/>
-    <hyperlink ref="D5" r:id="rId5" xr:uid="{D5ED7679-2B22-413E-901B-A04637235A09}"/>
-    <hyperlink ref="D9" r:id="rId6" xr:uid="{BFE51CFE-C510-4C59-9A3E-97851E444553}"/>
-    <hyperlink ref="D13" r:id="rId7" xr:uid="{7912A3D3-9582-49EC-9907-EFEEA301662D}"/>
-    <hyperlink ref="D15" r:id="rId8" location="ferry" xr:uid="{2A95FC48-4588-45DC-9D0D-D9B0093D2E49}"/>
-    <hyperlink ref="D12" r:id="rId9" display="2020 Bus Ridership Tables" xr:uid="{BE6A1CA7-51D3-4C30-9FB4-EE20947C6728}"/>
-    <hyperlink ref="D4" r:id="rId10" display="2020 Subway Ridership Tables " xr:uid="{BE6AF8D9-9DAB-4AEA-B2D8-3063EF76284D}"/>
-    <hyperlink ref="D2" r:id="rId11" xr:uid="{ADAFF76A-8E52-485C-8F06-052C616FF326}"/>
-    <hyperlink ref="D6" r:id="rId12" xr:uid="{C8D85097-C04D-4FEB-9CFC-CE0AC198CB18}"/>
-    <hyperlink ref="D3" r:id="rId13" display="NYCT Committee Book" xr:uid="{D469366C-A496-44DC-8080-5C33769337DA}"/>
-    <hyperlink ref="D8" r:id="rId14" display="NYCT Committee Book" xr:uid="{1D55D477-4C28-4050-82C3-8CDEFB56CADE}"/>
-    <hyperlink ref="D11" r:id="rId15" display="NYCT Committee Book" xr:uid="{F89BF3E1-80FF-410B-8785-4494B529EAB4}"/>
-    <hyperlink ref="D17" r:id="rId16" xr:uid="{49F42CE7-FAF0-4889-A2BB-F2CF33EC22D2}"/>
-    <hyperlink ref="D18" r:id="rId17" xr:uid="{49B49365-5E48-45D3-9766-D1A9928BF643}"/>
-    <hyperlink ref="D20" r:id="rId18" xr:uid="{7D3E623E-FBDC-47B2-8119-942A5C495284}"/>
-    <hyperlink ref="D19" r:id="rId19" xr:uid="{F4D99970-89C5-49FB-A57D-461ACFD847BA}"/>
-    <hyperlink ref="D21" r:id="rId20" tooltip="cases-by-day.csv" xr:uid="{0C9F5C4B-94C3-4DDE-BF70-F392F50D4D8B}"/>
+    <hyperlink ref="D14" r:id="rId1" xr:uid="{7AEC0110-DCB8-4136-919D-E92089D458D5}"/>
+    <hyperlink ref="D16" r:id="rId2" xr:uid="{6F067329-E102-48E4-9C4A-2030C25AB7A6}"/>
+    <hyperlink ref="D10" r:id="rId3" xr:uid="{CCDD8389-02F3-4D2B-AA19-6710B320EE3B}"/>
+    <hyperlink ref="D7" r:id="rId4" xr:uid="{68F327CD-BB2B-4EFF-A150-AED4C3702697}"/>
+    <hyperlink ref="D5" r:id="rId5" xr:uid="{EFADA01A-C78C-42F4-8112-3225CEA9941F}"/>
+    <hyperlink ref="D9" r:id="rId6" xr:uid="{3B997B30-EE5A-4B35-8E77-ADAB4C1C1933}"/>
+    <hyperlink ref="D13" r:id="rId7" xr:uid="{1D2A23B2-C166-47EC-9EBB-9F8BBD2E23CA}"/>
+    <hyperlink ref="D15" r:id="rId8" location="ferry" xr:uid="{EB89023B-E53A-4F13-A3EA-59DE07A29DC1}"/>
+    <hyperlink ref="D12" r:id="rId9" display="2020 Bus Ridership Tables" xr:uid="{1A7C92FA-E323-4C12-A28C-6C40AAE9D45E}"/>
+    <hyperlink ref="D4" r:id="rId10" display="2020 Subway Ridership Tables " xr:uid="{CF08903C-0347-48CD-AAE8-AC24976C73A2}"/>
+    <hyperlink ref="D2" r:id="rId11" xr:uid="{C29BB026-7C89-4777-A64D-BA1094882247}"/>
+    <hyperlink ref="D6" r:id="rId12" xr:uid="{0A9C23AC-B8B6-471A-93D0-EE7B5AC71E99}"/>
+    <hyperlink ref="D3" r:id="rId13" display="NYCT Committee Book" xr:uid="{873DDCF2-C809-4EBB-B512-18D06603C496}"/>
+    <hyperlink ref="D8" r:id="rId14" display="NYCT Committee Book" xr:uid="{3865FB36-EF6A-47A6-B1A6-04AA7C553A9D}"/>
+    <hyperlink ref="D11" r:id="rId15" display="NYCT Committee Book" xr:uid="{3B3EFCEB-6226-44E8-9DA4-A032DD62CE77}"/>
+    <hyperlink ref="D17" r:id="rId16" xr:uid="{85D11516-E9F3-449C-BC09-CC0D5734FBC1}"/>
+    <hyperlink ref="D18" r:id="rId17" xr:uid="{B33A26AD-1282-4C50-8BB3-90BB599BA4AE}"/>
+    <hyperlink ref="D20" r:id="rId18" xr:uid="{1302CDF0-34B5-49B3-B8D1-34ADBCE28135}"/>
+    <hyperlink ref="D19" r:id="rId19" xr:uid="{84FE4A23-18C3-441D-B059-F2412931D0A9}"/>
+    <hyperlink ref="D21" r:id="rId20" tooltip="cases-by-day.csv" xr:uid="{706FF3B6-B63D-43F3-9E8D-B71B038FEA2F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId21"/>
